--- a/app/Helpers/Excel/template/hanyou_kensaku/idoharigami.xlsx
+++ b/app/Helpers/Excel/template/hanyou_kensaku/idoharigami.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Web\AICHI_KOUSOKU_UNYU\app-src\app\Helpers\Excel\template\hanyou_kensaku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\aichi-kousoku-app-src.develop\app\Helpers\Excel\template\hanyou_kensaku\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CBC256-0EEE-4922-BD72-02E94FACC978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="移動張紙" sheetId="1" r:id="rId1"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -464,6 +465,24 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -493,30 +512,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_⑤配送予定" xfId="1"/>
-    <cellStyle name="標準_makuro" xfId="2"/>
+    <cellStyle name="標準_⑤配送予定" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_makuro" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -793,12 +794,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5"/>
   <cols>
@@ -1644,48 +1643,48 @@
       <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
       <c r="Q1" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="I2" s="35" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="I2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:17" ht="79.5" customHeight="1" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
       <c r="N3" s="22"/>
       <c r="O3" s="21" t="s">
         <v>8</v>
@@ -1696,35 +1695,35 @@
         <v>7</v>
       </c>
       <c r="B4" s="19"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="44"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:17" ht="77.25" customHeight="1" thickBot="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:17" ht="76.5" customHeight="1">
@@ -1767,15 +1766,15 @@
       <c r="E8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="6"/>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="39"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1">
@@ -1828,11 +1827,11 @@
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="6"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="13.5" customHeight="1">
@@ -1854,13 +1853,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="L1:O1"/>
@@ -1869,6 +1861,13 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="13" orientation="landscape" verticalDpi="180" r:id="rId1"/>
